--- a/Sample FA Status Prompts.xlsx
+++ b/Sample FA Status Prompts.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4162483E-8D2B-4488-9905-EE6093413064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AC1EB0-8BA1-49A1-B880-1579ABC37AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,7 +205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -215,6 +215,7 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -270,9 +271,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -310,7 +311,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -416,7 +417,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -558,7 +559,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -570,10 +571,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -591,7 +592,7 @@
     <col min="18" max="18" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +648,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -657,17 +658,17 @@
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
       <c r="J2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>18</v>
       </c>
@@ -677,17 +678,17 @@
       <c r="E3">
         <v>2</v>
       </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
       <c r="G3">
         <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
       </c>
       <c r="J3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -697,17 +698,17 @@
       <c r="E4">
         <v>3</v>
       </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
       <c r="G4">
         <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -717,17 +718,17 @@
       <c r="E5">
         <v>4</v>
       </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
       <c r="G5">
         <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
       </c>
       <c r="J5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -737,17 +738,17 @@
       <c r="E6">
         <v>5</v>
       </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
       <c r="G6">
         <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -757,17 +758,17 @@
       <c r="E7">
         <v>6</v>
       </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
       <c r="G7">
         <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
       </c>
       <c r="J7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -777,17 +778,17 @@
       <c r="E8">
         <v>7</v>
       </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
       <c r="G8">
         <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -797,17 +798,17 @@
       <c r="E9">
         <v>8</v>
       </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
       <c r="G9">
         <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -817,17 +818,17 @@
       <c r="E10">
         <v>99</v>
       </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
       <c r="J10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -837,17 +838,17 @@
       <c r="E11">
         <v>99</v>
       </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" t="s">
-        <v>39</v>
-      </c>
       <c r="J11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -857,17 +858,17 @@
       <c r="E12">
         <v>99</v>
       </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" t="s">
-        <v>41</v>
-      </c>
       <c r="J12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>18</v>
       </c>
@@ -877,17 +878,17 @@
       <c r="E13">
         <v>99</v>
       </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" t="s">
-        <v>43</v>
-      </c>
       <c r="J13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -897,17 +898,17 @@
       <c r="E14">
         <v>99</v>
       </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" t="s">
-        <v>45</v>
-      </c>
       <c r="J14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -917,17 +918,17 @@
       <c r="E15">
         <v>99</v>
       </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="J15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>18</v>
       </c>
@@ -937,17 +938,17 @@
       <c r="E16">
         <v>99</v>
       </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" t="s">
-        <v>49</v>
-      </c>
       <c r="J16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>18</v>
       </c>
@@ -957,17 +958,17 @@
       <c r="E17">
         <v>99</v>
       </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" t="s">
-        <v>51</v>
-      </c>
       <c r="J17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>18</v>
       </c>
@@ -977,17 +978,17 @@
       <c r="E18">
         <v>99</v>
       </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="H18" t="s">
-        <v>53</v>
-      </c>
       <c r="J18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -997,17 +998,17 @@
       <c r="E19">
         <v>99</v>
       </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="H19" t="s">
-        <v>55</v>
-      </c>
       <c r="J19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -1017,17 +1018,17 @@
       <c r="E20">
         <v>99</v>
       </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="H20" t="s">
-        <v>57</v>
-      </c>
       <c r="J20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -1037,11 +1038,11 @@
       <c r="E21">
         <v>99</v>
       </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
       <c r="G21">
         <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>59</v>
       </c>
       <c r="J21" t="s">
         <v>21</v>
